--- a/teszt.xlsx
+++ b/teszt.xlsx
@@ -19,21 +19,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>HardestPossiblePuzzle (668,522s)</t>
+    <t>Átlag</t>
   </si>
   <si>
-    <t>HardestPossiblePuzzle (265,636s)</t>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Előretkintő keresés (265,636s)</t>
+  </si>
+  <si>
+    <t>A csillag (668,522s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000\s"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000\s"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -64,10 +72,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -844,6 +857,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -862,6 +876,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Futtatások száma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -903,6 +973,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="9"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -928,6 +999,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0\ \s" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -971,6 +1098,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1568,16 +1727,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1862,824 +2021,824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>6.7400041000000002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2.6083462000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>6.3929450000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2.6358999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>6.3001480000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2.5961287999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>6.2651757999999997</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2.5796652999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6.3265836000000002</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.6253033000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6.3369004999999996</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.6206589</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>6.2778796000000003</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2.6104311999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>6.3202311</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2.600657</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>7.1128384000000002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2.6728900000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>7.1709433000000002</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2.6056884</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>7.5772069999999996</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2.6048512000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>6.3892762000000003</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2.5919189</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>6.4440010000000001</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2.7003503000000002</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>6.3050838000000002</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>2.9012658999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>6.3906874</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>2.6293506999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>6.2651389000000002</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2.6250144</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>6.2957524999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>2.6940035999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>6.4034700999999998</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2.8894723999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>6.4124230000000004</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2.6048325000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>6.7269226</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>2.6016428</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>6.5304326000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2.6032619000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>6.6926299</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>2.6016303000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>6.8345361999999996</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>2.6255600000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>6.7346431999999998</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2.6680725000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>6.4584976000000003</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>2.6183763</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>6.4739101000000003</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>2.5955287</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>6.5048925999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2.7017155000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>6.3759563999999997</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2.6109810000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>6.3592740000000001</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2.6305969</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>6.3842474999999999</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>2.6988737</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>6.3298173999999996</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2.6567734999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>6.3354882000000003</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>2.6407715</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>6.3341462999999996</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>2.6113251000000002</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>6.3267791000000004</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>2.6022270000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>6.3854327</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>2.6881244999999998</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>6.4371716000000001</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>2.6287455999999998</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>6.2510835</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>2.6173247000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>6.4689198000000001</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>2.6067855</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>8.0542370000000005</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>2.6610931</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>6.8942638000000001</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>2.5986931000000002</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>7.5438840999999996</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>2.6094249</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>6.3272703000000003</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>2.6015674999999998</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>5.5960635999999999</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>2.6755271</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>6.4941675999999999</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>2.6062827</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>6.9219556000000004</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>2.6005262</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>6.4309345000000002</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>2.5942789999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>6.4993027000000003</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>2.6186224999999999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>6.3396553000000004</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>2.6499777</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>6.3522086</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>2.6542419000000002</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>6.4889114000000001</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>2.6089196000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>6.4727490999999997</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>2.6107868999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>6.5627496000000001</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>2.6529916</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>6.5167038000000002</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>2.6650605000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>6.5988949000000003</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>2.6023618000000002</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>8.1341283999999998</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>2.6081379999999998</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>7.4845132000000003</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>2.6586075</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>8.1201468000000006</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>2.6449286000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>7.6740161999999996</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>2.6907760999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>7.9131970999999997</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>2.6301985999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>6.5960742000000003</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>2.6529658</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>6.9873215000000002</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>2.5994267999999998</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>6.3829504000000004</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>2.6077865999999998</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>6.6179341000000003</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>2.6144954</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>7.5134053999999999</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>2.6638568999999999</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>6.6167131000000001</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>2.6119791000000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>7.1230696</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>2.6057060000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>6.3599740999999996</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>2.6049494000000002</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>6.4238264999999997</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>2.6676312000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>6.3157249000000002</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>2.6051091999999998</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>6.6041677999999999</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>2.6021177</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>6.4226099000000003</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>2.5919751</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>6.5261129000000002</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>2.6213234000000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>7.4045996000000001</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>2.6637195</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>6.4378048000000003</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>2.6138251000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>6.6180006000000002</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>2.6276297999999998</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>6.3573332999999996</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>2.6191300000000002</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>6.3540521999999999</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>2.6616127999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>6.2987470999999999</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>2.6077183000000002</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>6.4267783999999999</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>2.6006459</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>6.4687026999999997</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>2.6090059000000001</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>6.5272122000000001</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>2.6729422999999999</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>6.3993748000000004</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>2.6079656999999998</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>6.2759694000000001</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <v>2.5927452999999998</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>6.5518635999999999</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>2.6201013999999998</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>6.4507563000000001</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="1">
         <v>2.6712497000000002</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>6.4633324999999999</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <v>2.6436251999999998</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>8.7678654999999992</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>2.8062670000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>6.8258258999999999</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>2.6061385000000001</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>6.4123825999999999</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <v>2.6783701999999998</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>6.5654744000000003</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>2.6147768</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>7.1759383000000003</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>2.6011671000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>7.8275207</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>2.9327909999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>7.5635162999999999</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="1">
         <v>3.2238185000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>6.7555138000000001</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="1">
         <v>2.9893931</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>6.7882502000000002</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="1">
         <v>2.7346512000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>5.8421139000000002</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="1">
         <v>2.6467873000000002</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>6.5433313999999996</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="1">
         <v>2.7951921999999998</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>7.5236071000000004</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>2.8993606000000001</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>7.6482681000000001</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="1">
         <v>2.7697956000000001</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>6.5387582999999996</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <v>2.7192390999999998</v>
       </c>
     </row>
@@ -2688,9 +2847,38 @@
         <f>AVERAGE(A3:A103)</f>
         <v>6.6839420259999995</v>
       </c>
+      <c r="B104" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C104" s="1">
         <f>AVERAGE(C3:C102)</f>
         <v>2.6552703860000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <f>MAX(A3:A102)</f>
+        <v>8.7678654999999992</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="B105:C105" si="0">MAX(C3:C102)</f>
+        <v>3.2238185000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <f>MIN(A3:A102)</f>
+        <v>5.5960635999999999</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" ref="B106:C106" si="1">MIN(C3:C102)</f>
+        <v>2.5796652999999998</v>
       </c>
     </row>
   </sheetData>
